--- a/data/trans_media/IQ27-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ27-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 11,66</t>
+          <t>10,53; 11,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 11,01</t>
+          <t>10,02; 10,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,24; 11,28</t>
+          <t>10,25; 11,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 14,14</t>
+          <t>11,69; 14,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 11,69</t>
+          <t>10,39; 11,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,73; 10,69</t>
+          <t>9,66; 10,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 10,63</t>
+          <t>9,68; 10,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 17,16</t>
+          <t>13,32; 17,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 11,5</t>
+          <t>10,59; 11,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 10,7</t>
+          <t>10,0; 10,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 10,78</t>
+          <t>10,13; 10,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,87; 15,16</t>
+          <t>12,83; 15,11</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,82; 23,11</t>
+          <t>21,81; 23,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,43; 22,71</t>
+          <t>21,41; 22,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,0; 22,21</t>
+          <t>20,91; 22,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,41; 27,69</t>
+          <t>24,44; 27,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,1; 22,43</t>
+          <t>21,09; 22,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,89; 22,25</t>
+          <t>20,92; 22,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,72; 22,07</t>
+          <t>20,74; 22,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 24,48</t>
+          <t>21,99; 24,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,62; 22,53</t>
+          <t>21,62; 22,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,32; 22,27</t>
+          <t>21,33; 22,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,04; 21,91</t>
+          <t>21,02; 21,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,66; 25,85</t>
+          <t>23,57; 25,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,66; 39,28</t>
+          <t>36,65; 39,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,18; 37,39</t>
+          <t>35,29; 37,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,81; 37,97</t>
+          <t>35,8; 37,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,43; 39,47</t>
+          <t>35,42; 39,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,64; 39,25</t>
+          <t>36,64; 39,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,61; 38,09</t>
+          <t>35,68; 38,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,52; 36,62</t>
+          <t>34,65; 36,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,41; 36,9</t>
+          <t>33,44; 36,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,08; 39,0</t>
+          <t>37,01; 38,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,78; 37,54</t>
+          <t>35,85; 37,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,46; 36,93</t>
+          <t>35,58; 37,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,03; 37,65</t>
+          <t>35,04; 37,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,43; 60,07</t>
+          <t>57,4; 60,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,28; 57,7</t>
+          <t>54,16; 57,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,54; 55,8</t>
+          <t>52,47; 55,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,53; 53,32</t>
+          <t>48,57; 53,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,81; 52,75</t>
+          <t>50,82; 52,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,11; 53,04</t>
+          <t>50,05; 53,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,68; 52,16</t>
+          <t>49,76; 52,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,9; 47,91</t>
+          <t>43,93; 48,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,39; 56,17</t>
+          <t>54,45; 56,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,56; 54,87</t>
+          <t>52,63; 54,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,33; 53,55</t>
+          <t>51,49; 53,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,88; 50,21</t>
+          <t>47,06; 50,33</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,8; 35,24</t>
+          <t>32,7; 35,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,52 +1294,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,85; 31,96</t>
+          <t>29,89; 32,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,16; 39,25</t>
+          <t>36,27; 39,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,66; 32,73</t>
+          <t>30,6; 32,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,77; 30,89</t>
+          <t>28,84; 31,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,15; 31,18</t>
+          <t>29,06; 31,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,3; 36,07</t>
+          <t>33,3; 36,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,01; 33,61</t>
+          <t>32,11; 33,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,5; 31,06</t>
+          <t>29,48; 31,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,77; 31,3</t>
+          <t>29,79; 31,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,14; 37,27</t>
+          <t>35,24; 37,27</t>
         </is>
       </c>
     </row>
